--- a/media/BAJAJ-PL/MIS/FEB 22/MASTER_FILE_BAJAJ-PL.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/MASTER_FILE_BAJAJ-PL.xlsx
@@ -5279,15 +5279,15 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U55" t="n">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
     </row>
@@ -6159,15 +6159,15 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
     </row>

--- a/media/BAJAJ-PL/MIS/FEB 22/MASTER_FILE_BAJAJ-PL.xlsx
+++ b/media/BAJAJ-PL/MIS/FEB 22/MASTER_FILE_BAJAJ-PL.xlsx
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>41279</v>
+        <v>241279</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
     </row>
@@ -2727,15 +2727,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NEELU MALIK</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
     </row>
@@ -10031,15 +10031,15 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NEELU MALIK</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U109" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>4700</v>
+        <v>9350</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -19883,15 +19883,15 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U221" t="n">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>LESS THAN DEMAND</t>
         </is>
       </c>
     </row>
@@ -34579,15 +34579,15 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>PAID</t>
         </is>
       </c>
       <c r="U388" t="n">
@@ -34595,7 +34595,7 @@
       </c>
       <c r="V388" t="inlineStr">
         <is>
-          <t>UNPAID</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
     </row>
@@ -42767,7 +42767,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>6000</v>
+        <v>9661</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
